--- a/nmadb/501409.xlsx
+++ b/nmadb/501409.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="75" windowWidth="17715" windowHeight="11685"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$5:$L$27</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>NR</t>
-  </si>
-  <si>
-    <t>y (treatment effect)</t>
   </si>
   <si>
     <r>
@@ -258,9 +255,6 @@
       </rPr>
       <t>: Reduction in probing pocket depth (PPD)</t>
     </r>
-  </si>
-  <si>
-    <t>tx</t>
   </si>
   <si>
     <t>Crea</t>
@@ -325,12 +319,18 @@
 raw data (tx; column D)</t>
     </r>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,7 +598,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -672,7 +672,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -707,7 +706,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,14 +881,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="4" bestFit="1" customWidth="1"/>
@@ -908,7 +906,7 @@
     <col min="15" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -919,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>4</v>
@@ -934,13 +932,13 @@
         <v>1</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -967,13 +965,13 @@
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
@@ -1001,7 +999,7 @@
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1027,7 @@
       <c r="L4" s="30"/>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
@@ -1052,16 +1050,16 @@
         <v>73</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="4">
         <v>2006</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1128,7 +1126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
@@ -1160,7 +1158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -1195,7 +1193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
@@ -1227,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="4">
         <v>2004</v>
       </c>
@@ -1262,7 +1260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
@@ -1294,7 +1292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="4">
         <v>2005</v>
       </c>
@@ -1329,7 +1327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -1361,7 +1359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="4">
         <v>2002</v>
       </c>
@@ -1396,7 +1394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
@@ -1428,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -1463,7 +1461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1495,7 +1493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="4">
         <v>2000</v>
       </c>
@@ -1530,7 +1528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
@@ -1562,7 +1560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
@@ -1594,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="4">
         <v>2002</v>
       </c>
@@ -1629,7 +1627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="B23" s="4" t="s">
         <v>36</v>
       </c>
@@ -1661,7 +1659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="4">
         <v>2002</v>
       </c>
@@ -1696,7 +1694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="B25" s="4" t="s">
         <v>37</v>
       </c>
@@ -1728,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="B26" s="4" t="s">
         <v>37</v>
       </c>
@@ -1760,7 +1758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="4">
         <v>2003</v>
       </c>
@@ -1795,7 +1793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="B28" s="4" t="s">
         <v>37</v>
       </c>
@@ -1820,7 +1818,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="4">
         <v>2007</v>
       </c>
@@ -1846,15 +1844,15 @@
         <v>73</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="B30" s="4" t="s">
         <v>38</v>
       </c>
@@ -1880,13 +1878,13 @@
         <v>1</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="4">
         <v>2009</v>
       </c>
@@ -1915,13 +1913,13 @@
         <v>2</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1947,13 +1945,13 @@
         <v>3</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="4">
         <v>2010</v>
       </c>
@@ -1988,7 +1986,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="B34" s="4" t="s">
         <v>40</v>
       </c>
@@ -2014,18 +2012,18 @@
         <v>5</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="4">
         <v>2008</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4">
         <v>15</v>
@@ -2049,15 +2047,15 @@
         <v>6</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="B36" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="4">
         <v>15</v>
@@ -2081,13 +2079,13 @@
         <v>7</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="4">
         <v>2003</v>
       </c>
@@ -2116,13 +2114,13 @@
         <v>8</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="B38" s="4" t="s">
         <v>35</v>
       </c>
@@ -2149,7 +2147,7 @@
       <c r="N38"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="4">
         <v>2004</v>
       </c>
@@ -2179,7 +2177,7 @@
       <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="B40" s="4" t="s">
         <v>42</v>
       </c>
@@ -2206,7 +2204,7 @@
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="4">
         <v>2004</v>
       </c>
@@ -2236,7 +2234,7 @@
       <c r="N41"/>
       <c r="O41"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
@@ -2261,7 +2259,7 @@
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="4">
         <v>2001</v>
       </c>
@@ -2289,7 +2287,7 @@
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="B44" s="4" t="s">
         <v>44</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="4">
         <v>1998</v>
       </c>
@@ -2338,7 +2336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
@@ -2361,7 +2359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="4">
         <v>1998</v>
       </c>
@@ -2387,7 +2385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="B48" s="4" t="s">
         <v>44</v>
       </c>
@@ -2410,7 +2408,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="4">
         <v>1998</v>
       </c>
@@ -2436,7 +2434,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="B50" s="4" t="s">
         <v>36</v>
       </c>
@@ -2459,7 +2457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
         <v>46</v>
       </c>
@@ -2485,7 +2483,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="B52" s="4" t="s">
         <v>50</v>
       </c>
@@ -2508,7 +2506,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="4" t="s">
         <v>47</v>
       </c>
@@ -2534,7 +2532,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="B54" s="4" t="s">
         <v>50</v>
       </c>
@@ -2557,7 +2555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="4" t="s">
         <v>48</v>
       </c>
@@ -2583,7 +2581,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="B56" s="4" t="s">
         <v>50</v>
       </c>
@@ -2606,7 +2604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="4" t="s">
         <v>49</v>
       </c>
@@ -2632,7 +2630,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="B58" s="4" t="s">
         <v>27</v>
       </c>
@@ -2655,7 +2653,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="4">
         <v>2003</v>
       </c>
@@ -2681,7 +2679,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="B60" s="4" t="s">
         <v>27</v>
       </c>
@@ -2704,7 +2702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="4">
         <v>2000</v>
       </c>
@@ -2730,7 +2728,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="B62" s="4" t="s">
         <v>52</v>
       </c>
@@ -2753,7 +2751,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="4">
         <v>2008</v>
       </c>
@@ -2779,7 +2777,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="B64" s="4" t="s">
         <v>53</v>
       </c>
@@ -2802,7 +2800,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="4">
         <v>1996</v>
       </c>
@@ -2828,7 +2826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="B66" s="4" t="s">
         <v>44</v>
       </c>
@@ -2851,7 +2849,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="4">
         <v>1995</v>
       </c>
@@ -2877,7 +2875,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="B68" s="4" t="s">
         <v>44</v>
       </c>
@@ -2900,7 +2898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="4">
         <v>2003</v>
       </c>
@@ -2926,7 +2924,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="B70" s="4" t="s">
         <v>54</v>
       </c>
@@ -2949,7 +2947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="B71" s="4" t="s">
         <v>54</v>
       </c>
@@ -2972,7 +2970,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="4">
         <v>2001</v>
       </c>
@@ -2998,7 +2996,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="B73" s="4" t="s">
         <v>44</v>
       </c>
@@ -3021,7 +3019,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="B74" s="4" t="s">
         <v>44</v>
       </c>
@@ -3044,7 +3042,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="4">
         <v>2011</v>
       </c>
@@ -3070,7 +3068,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="B76" s="4" t="s">
         <v>55</v>
       </c>
@@ -3093,7 +3091,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="4">
         <v>2011</v>
       </c>
@@ -3119,7 +3117,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="B78" s="4" t="s">
         <v>56</v>
       </c>
@@ -3142,7 +3140,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="4">
         <v>1990</v>
       </c>
@@ -3168,7 +3166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="B80" s="4" t="s">
         <v>57</v>
       </c>
@@ -3191,7 +3189,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="B81" s="4" t="s">
         <v>57</v>
       </c>
@@ -3214,7 +3212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="4">
         <v>2005</v>
       </c>
@@ -3240,7 +3238,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="B83" s="4" t="s">
         <v>58</v>
       </c>
@@ -3263,7 +3261,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="4">
         <v>2001</v>
       </c>
@@ -3289,7 +3287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="B85" s="4" t="s">
         <v>59</v>
       </c>
@@ -3312,7 +3310,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="4">
         <v>1997</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="B87" s="4" t="s">
         <v>60</v>
       </c>
@@ -3361,7 +3359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="4">
         <v>2000</v>
       </c>
@@ -3387,7 +3385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="B89" s="4" t="s">
         <v>61</v>
       </c>
@@ -3410,7 +3408,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="4">
         <v>1999</v>
       </c>
@@ -3436,7 +3434,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="B91" s="4" t="s">
         <v>62</v>
       </c>
@@ -3459,7 +3457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="B92" s="4" t="s">
         <v>62</v>
       </c>
@@ -3482,7 +3480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="B93" s="4" t="s">
         <v>62</v>
       </c>
@@ -3505,7 +3503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="4">
         <v>2005</v>
       </c>
@@ -3531,7 +3529,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="B95" s="4" t="s">
         <v>63</v>
       </c>
@@ -3554,7 +3552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="4">
         <v>2010</v>
       </c>
@@ -3580,7 +3578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="B97" s="4" t="s">
         <v>64</v>
       </c>
@@ -3603,7 +3601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="4">
         <v>2002</v>
       </c>
@@ -3629,7 +3627,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="B99" s="4" t="s">
         <v>65</v>
       </c>
@@ -3652,7 +3650,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="4">
         <v>1995</v>
       </c>
@@ -3678,7 +3676,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="B101" s="4" t="s">
         <v>66</v>
       </c>
@@ -3701,7 +3699,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="4">
         <v>2000</v>
       </c>
@@ -3727,7 +3725,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="B103" s="4" t="s">
         <v>67</v>
       </c>
@@ -3750,7 +3748,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="4">
         <v>2006</v>
       </c>
@@ -3776,7 +3774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="B105" s="4" t="s">
         <v>68</v>
       </c>
@@ -3799,7 +3797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="4">
         <v>1996</v>
       </c>
@@ -3825,7 +3823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="B107" s="4" t="s">
         <v>70</v>
       </c>
@@ -3848,7 +3846,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="4">
         <v>2009</v>
       </c>
@@ -3874,7 +3872,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="B109" s="4" t="s">
         <v>71</v>
       </c>
@@ -3897,7 +3895,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="4">
         <v>1995</v>
       </c>
@@ -3923,7 +3921,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="B111" s="4" t="s">
         <v>72</v>
       </c>
@@ -3960,24 +3958,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
